--- a/teaching/traditional_assets/database/data/indonesia/indonesia_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/indonesia/indonesia_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ21"/>
+  <dimension ref="A1:AQ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0834</v>
+        <v>0.063</v>
       </c>
       <c r="E2">
-        <v>0.0636</v>
+        <v>0.07965</v>
       </c>
       <c r="F2">
-        <v>0.0998</v>
+        <v>0.06860000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.0002253688919352659</v>
+        <v>0.000197864578358226</v>
       </c>
       <c r="J2">
-        <v>-0.0001807309147860634</v>
+        <v>0.0001490222701973878</v>
       </c>
       <c r="K2">
-        <v>7244.48</v>
+        <v>6866.2</v>
       </c>
       <c r="L2">
-        <v>0.377776609688963</v>
+        <v>0.3015685411596567</v>
       </c>
       <c r="M2">
-        <v>2696.207</v>
+        <v>4126.527</v>
       </c>
       <c r="N2">
-        <v>0.01971054191787271</v>
+        <v>0.02563980733455862</v>
       </c>
       <c r="O2">
-        <v>0.3721739862626441</v>
+        <v>0.6009913780548193</v>
       </c>
       <c r="P2">
-        <v>2695.762</v>
+        <v>4106.09</v>
       </c>
       <c r="Q2">
-        <v>0.0197072887584701</v>
+        <v>0.02551282385850324</v>
       </c>
       <c r="R2">
-        <v>0.3721125601837537</v>
+        <v>0.5980149136349072</v>
       </c>
       <c r="S2">
-        <v>0.445</v>
+        <v>20.43699999999989</v>
       </c>
       <c r="T2">
-        <v>0.0001650466748287502</v>
+        <v>0.004952590883326315</v>
       </c>
       <c r="U2">
-        <v>18877.57</v>
+        <v>27699.75</v>
       </c>
       <c r="V2">
-        <v>0.1380039198743184</v>
+        <v>0.1721099251781074</v>
       </c>
       <c r="W2">
-        <v>0.09303482587064676</v>
+        <v>0.06254295532646048</v>
       </c>
       <c r="X2">
-        <v>0.05049417392145115</v>
+        <v>0.04407548238550574</v>
       </c>
       <c r="Y2">
-        <v>0.04254065194919561</v>
+        <v>0.01846747294095474</v>
       </c>
       <c r="Z2">
-        <v>0.4451777156273396</v>
+        <v>0.3059734789938626</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0493059744647282</v>
+        <v>0.04364113541266196</v>
       </c>
       <c r="AC2">
-        <v>-0.0493059744647282</v>
+        <v>-0.04364113541266196</v>
       </c>
       <c r="AD2">
-        <v>20765.25</v>
+        <v>27846.998</v>
       </c>
       <c r="AE2">
-        <v>32.39407250969613</v>
+        <v>64.10980949606093</v>
       </c>
       <c r="AF2">
-        <v>20797.64407250969</v>
+        <v>27911.10780949606</v>
       </c>
       <c r="AG2">
-        <v>1920.074072509695</v>
+        <v>211.3578094960612</v>
       </c>
       <c r="AH2">
-        <v>0.131975009826527</v>
+        <v>0.1477925281438603</v>
       </c>
       <c r="AI2">
-        <v>0.2877238382110344</v>
+        <v>0.2931808018813011</v>
       </c>
       <c r="AJ2">
-        <v>0.01384234491340189</v>
+        <v>0.001311530520138519</v>
       </c>
       <c r="AK2">
-        <v>0.03595254907039257</v>
+        <v>0.003131168460483525</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>9626.912378303199</v>
+        <v>1607.144802908755</v>
       </c>
       <c r="AP2">
-        <v>890.1595143763072</v>
+        <v>12.19817680475912</v>
       </c>
     </row>
     <row r="3">
@@ -722,7 +722,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.368</v>
+        <v>0.0363</v>
+      </c>
+      <c r="E3">
+        <v>0.07539999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1179470219588565</v>
+        <v>0.01428054711529213</v>
       </c>
       <c r="J3">
-        <v>0.1179470219588565</v>
+        <v>0.01428054711529213</v>
       </c>
       <c r="K3">
-        <v>-7.78</v>
+        <v>1.25</v>
       </c>
       <c r="L3">
-        <v>-12.85950413223141</v>
+        <v>0.159846547314578</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -749,7 +752,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -758,61 +761,61 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>20.8</v>
+        <v>16.5</v>
       </c>
       <c r="V3">
-        <v>0.5517241379310345</v>
+        <v>0.1292090837901331</v>
       </c>
       <c r="W3">
-        <v>-0.2628378378378378</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="X3">
-        <v>0.0480772285451966</v>
+        <v>0.04099773230865367</v>
       </c>
       <c r="Y3">
-        <v>-0.3109150663830344</v>
+        <v>0.01335009377830285</v>
       </c>
       <c r="Z3">
-        <v>0.03443720168960977</v>
+        <v>2.766544725880655</v>
       </c>
       <c r="AA3">
-        <v>0.004061765383885974</v>
+        <v>0.03950777230450164</v>
       </c>
       <c r="AB3">
-        <v>0.04792269872257085</v>
+        <v>0.04098698568102267</v>
       </c>
       <c r="AC3">
-        <v>-0.04386093333868488</v>
+        <v>-0.001479213376521037</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.512</v>
       </c>
       <c r="AE3">
-        <v>0.778210258574459</v>
+        <v>0.6266306077920778</v>
       </c>
       <c r="AF3">
-        <v>0.778210258574459</v>
+        <v>1.138630607792078</v>
       </c>
       <c r="AG3">
-        <v>-20.02178974142554</v>
+        <v>-15.36136939220792</v>
       </c>
       <c r="AH3">
-        <v>0.02022469998850955</v>
+        <v>0.008837649099657646</v>
       </c>
       <c r="AI3">
-        <v>0.03272787354943315</v>
+        <v>0.0464015545932915</v>
       </c>
       <c r="AJ3">
-        <v>-1.132568820518151</v>
+        <v>-0.1367416471884821</v>
       </c>
       <c r="AK3">
-        <v>-6.722758973709642</v>
+        <v>-1.910943560127978</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -821,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>2.160337552742616</v>
       </c>
       <c r="AP3">
-        <v>-88.20171692257948</v>
+        <v>-64.81590460847225</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PT Bank Panin Dubai Syariah Tbk (IDX:PNBS)</t>
+          <t>PT Bank Permata Tbk (IDX:BNLI)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -844,10 +847,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.109</v>
+        <v>0.00378</v>
       </c>
       <c r="E4">
-        <v>-0.133</v>
+        <v>-0.0824</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -856,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.005567972425125598</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.003374347120931875</v>
       </c>
       <c r="K4">
-        <v>1.22</v>
+        <v>56.3</v>
       </c>
       <c r="L4">
-        <v>0.06387434554973821</v>
+        <v>0.1361877116594098</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -889,61 +892,67 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>12.7</v>
+        <v>907.7</v>
       </c>
       <c r="V4">
-        <v>0.1471610660486674</v>
+        <v>0.1488618472841774</v>
       </c>
       <c r="W4">
-        <v>0.01097122302158273</v>
+        <v>0.03364005736137667</v>
       </c>
       <c r="X4">
-        <v>0.04763697759648761</v>
+        <v>0.04151004361621388</v>
       </c>
       <c r="Y4">
-        <v>-0.03666575457490488</v>
+        <v>-0.007869986254837209</v>
       </c>
       <c r="Z4">
-        <v>0.262002743484225</v>
+        <v>0.3011317569440529</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.001016123077065322</v>
       </c>
       <c r="AB4">
-        <v>0.04763697759648761</v>
+        <v>0.04136581901747759</v>
       </c>
       <c r="AC4">
-        <v>-0.04763697759648761</v>
+        <v>-0.04034969594041227</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>155.9</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>15.29100099726539</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>171.1910009972654</v>
       </c>
       <c r="AG4">
-        <v>-12.7</v>
+        <v>-736.5089990027346</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.02730845564480162</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.09558451209522677</v>
       </c>
       <c r="AJ4">
-        <v>-0.172554347826087</v>
+        <v>-0.1373804322414467</v>
       </c>
       <c r="AK4">
-        <v>-0.1202651515151515</v>
+        <v>-0.8338237321236049</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>29.08582089552239</v>
+      </c>
+      <c r="AP4">
+        <v>-137.4083953363311</v>
       </c>
     </row>
     <row r="5">
@@ -954,7 +963,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PT Bank Capital Indonesia Tbk (IDX:BACA)</t>
+          <t>PT Bank Amar Indonesia Tbk (IDX:AMAR)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -963,10 +972,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.12</v>
+        <v>0.647</v>
       </c>
       <c r="E5">
-        <v>0.0621</v>
+        <v>0.516</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -981,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.17</v>
+        <v>1.62</v>
       </c>
       <c r="L5">
-        <v>0.2195729537366548</v>
+        <v>0.07605633802816901</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1008,31 +1017,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>262.4</v>
+        <v>1.05</v>
       </c>
       <c r="V5">
-        <v>1.718402095612312</v>
+        <v>0.006390748630553865</v>
       </c>
       <c r="W5">
-        <v>0.06263959390862944</v>
+        <v>0.0211764705882353</v>
       </c>
       <c r="X5">
-        <v>0.04763697759648761</v>
+        <v>0.04075930281513492</v>
       </c>
       <c r="Y5">
-        <v>0.01500261631214184</v>
+        <v>-0.01958283222689962</v>
       </c>
       <c r="Z5">
-        <v>-0.1632771644392795</v>
+        <v>0.2793076317859953</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04763697759648761</v>
+        <v>0.04075930281513492</v>
       </c>
       <c r="AC5">
-        <v>-0.04763697759648761</v>
+        <v>-0.04075930281513492</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1044,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-262.4</v>
+        <v>-1.05</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1053,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>2.391978122151322</v>
+        <v>-0.006431852986217458</v>
       </c>
       <c r="AK5">
-        <v>2.582677165354331</v>
+        <v>-0.01482004234297812</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1073,7 +1082,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PT Bank Artos Indonesia, Tbk (IDX:ARTO)</t>
+          <t>PT Bank Panin Dubai Syariah Tbk (IDX:PNBS)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1082,7 +1091,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.181</v>
+        <v>-0.04559999999999999</v>
+      </c>
+      <c r="E6">
+        <v>-0.4</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1097,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>-2.27</v>
+        <v>0.35</v>
       </c>
       <c r="L6">
-        <v>-3.157162726008345</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1109,7 +1121,7 @@
         <v>-0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1118,61 +1130,61 @@
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.37</v>
+        <v>40.3</v>
       </c>
       <c r="V6">
-        <v>0.005089153046062408</v>
+        <v>0.1755226480836237</v>
       </c>
       <c r="W6">
-        <v>-0.2630359212050985</v>
+        <v>0.002958579881656805</v>
       </c>
       <c r="X6">
-        <v>0.04763697759648761</v>
+        <v>0.04080157967873949</v>
       </c>
       <c r="Y6">
-        <v>-0.3106728988015861</v>
+        <v>-0.03784299979708268</v>
       </c>
       <c r="Z6">
-        <v>0.09835841313269493</v>
+        <v>0.1392045454545454</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04763697759648761</v>
+        <v>0.04078550589513891</v>
       </c>
       <c r="AC6">
-        <v>-0.04763697759648761</v>
+        <v>-0.04078550589513891</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="AG6">
-        <v>-1.37</v>
+        <v>-39.937</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.001578514804555515</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.003289145818797967</v>
       </c>
       <c r="AJ6">
-        <v>-0.005115185005413882</v>
+        <v>-0.2105682183662601</v>
       </c>
       <c r="AK6">
-        <v>-0.2518382352941177</v>
+        <v>-0.5700155574268871</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1189,7 +1201,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PT Bank Central Asia Tbk (IDX:BBCA)</t>
+          <t>PT Bank Bisnis Internasional Tbk (IDX:BBSI)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1198,13 +1210,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.119</v>
+        <v>0.135</v>
       </c>
       <c r="E7">
-        <v>0.119</v>
-      </c>
-      <c r="F7">
-        <v>0.109</v>
+        <v>0.253</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1219,85 +1228,82 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1993.6</v>
+        <v>1.82</v>
       </c>
       <c r="L7">
-        <v>0.4341652510997865</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="M7">
-        <v>591.2</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.009963815440206154</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0.2965489566613163</v>
+        <v>-0</v>
       </c>
       <c r="P7">
-        <v>591.2</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.009963815440206154</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.2965489566613163</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>4114.2</v>
+        <v>14.3</v>
       </c>
       <c r="V7">
-        <v>0.0693388523073345</v>
+        <v>0.07984366275823562</v>
       </c>
       <c r="W7">
-        <v>0.2069702978520187</v>
+        <v>0.06254295532646048</v>
       </c>
       <c r="X7">
-        <v>0.04776742123869568</v>
+        <v>0.04079707681329457</v>
       </c>
       <c r="Y7">
-        <v>0.1592028766133231</v>
+        <v>0.02174587851316591</v>
       </c>
       <c r="Z7">
-        <v>0.7474618235802573</v>
+        <v>0.1327760019670519</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04767817682600407</v>
+        <v>0.04079564453457123</v>
       </c>
       <c r="AC7">
-        <v>-0.04767817682600407</v>
+        <v>-0.04079564453457123</v>
       </c>
       <c r="AD7">
-        <v>362.9</v>
+        <v>0.253</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>362.9</v>
+        <v>0.253</v>
       </c>
       <c r="AG7">
-        <v>-3751.3</v>
+        <v>-14.047</v>
       </c>
       <c r="AH7">
-        <v>0.00607897134893195</v>
+        <v>0.00141062597224468</v>
       </c>
       <c r="AI7">
-        <v>0.02972105289020655</v>
+        <v>0.005287024846927047</v>
       </c>
       <c r="AJ7">
-        <v>-0.06748957422539824</v>
+        <v>-0.08510599625574816</v>
       </c>
       <c r="AK7">
-        <v>-0.4633522727272727</v>
+        <v>-0.4186510893213722</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1314,7 +1320,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PT Bank Mestika Dharma Tbk (IDX:BBMD)</t>
+          <t>PT Bank Central Asia Tbk (IDX:BBCA)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1323,10 +1329,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0271</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E8">
-        <v>0.018</v>
+        <v>0.0941</v>
+      </c>
+      <c r="F8">
+        <v>0.106</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1341,85 +1350,85 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.7</v>
+        <v>1861.4</v>
       </c>
       <c r="L8">
-        <v>0.3839835728952772</v>
+        <v>0.4249965751860816</v>
       </c>
       <c r="M8">
-        <v>0.035</v>
+        <v>920.2</v>
       </c>
       <c r="N8">
-        <v>4.244996967859309e-05</v>
+        <v>0.01531390000199703</v>
       </c>
       <c r="O8">
-        <v>0.001871657754010695</v>
+        <v>0.4943590845600086</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>920.2</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.01531390000199703</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>0.4943590845600086</v>
       </c>
       <c r="S8">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>62</v>
+        <v>4450.1</v>
       </c>
       <c r="V8">
-        <v>0.07519708914493632</v>
+        <v>0.07405823342630623</v>
       </c>
       <c r="W8">
-        <v>0.09303482587064676</v>
+        <v>0.1572075267727442</v>
       </c>
       <c r="X8">
-        <v>0.04773475665226206</v>
+        <v>0.04086303508255197</v>
       </c>
       <c r="Y8">
-        <v>0.0453000692183847</v>
+        <v>0.1163444916901922</v>
       </c>
       <c r="Z8">
-        <v>0.2996923076923077</v>
+        <v>0.5422356480507101</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04770145015278485</v>
+        <v>0.04082344859134597</v>
       </c>
       <c r="AC8">
-        <v>-0.04770145015278485</v>
+        <v>-0.04082344859134597</v>
       </c>
       <c r="AD8">
-        <v>3.78</v>
+        <v>233.1</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>3.78</v>
+        <v>233.1</v>
       </c>
       <c r="AG8">
-        <v>-58.22</v>
+        <v>-4217</v>
       </c>
       <c r="AH8">
-        <v>0.004563674119862848</v>
+        <v>0.003864242576957444</v>
       </c>
       <c r="AI8">
-        <v>0.01540467845790203</v>
+        <v>0.01898208469055375</v>
       </c>
       <c r="AJ8">
-        <v>-0.07597744949626768</v>
+        <v>-0.07547581802757007</v>
       </c>
       <c r="AK8">
-        <v>-0.3174828225542589</v>
+        <v>-0.5385764824582689</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1436,7 +1445,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PT Bank Pembangunan Daerah Jawa Timur Tbk (IDX:BJTM)</t>
+          <t>PT Bank BRIsyariah Tbk (IDX:BRIS)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1445,13 +1454,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.102</v>
+        <v>0.0641</v>
       </c>
       <c r="E9">
-        <v>0.0864</v>
-      </c>
-      <c r="F9">
-        <v>0.04</v>
+        <v>0.165</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1466,85 +1472,82 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>94.59999999999999</v>
+        <v>14</v>
       </c>
       <c r="L9">
-        <v>0.3307692307692308</v>
+        <v>0.115990057995029</v>
       </c>
       <c r="M9">
-        <v>48.2</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.06514393837005002</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>0.5095137420718817</v>
+        <v>-0</v>
       </c>
       <c r="P9">
-        <v>48.2</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.06514393837005002</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.5095137420718817</v>
+        <v>-0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>717.4</v>
+        <v>322.1</v>
       </c>
       <c r="V9">
-        <v>0.9695904852007028</v>
+        <v>0.2028209810465336</v>
       </c>
       <c r="W9">
-        <v>0.1716255442670537</v>
+        <v>0.03912800447177193</v>
       </c>
       <c r="X9">
-        <v>0.0484959672562815</v>
+        <v>0.04085561610163273</v>
       </c>
       <c r="Y9">
-        <v>0.1231295770107722</v>
+        <v>-0.001727611629860792</v>
       </c>
       <c r="Z9">
-        <v>-0.9056364787840406</v>
+        <v>0.6661147902869756</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04789937152104649</v>
+        <v>0.04085176206210547</v>
       </c>
       <c r="AC9">
-        <v>-0.04789937152104649</v>
+        <v>-0.04085176206210547</v>
       </c>
       <c r="AD9">
-        <v>29.8</v>
+        <v>5.72</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>29.8</v>
+        <v>5.72</v>
       </c>
       <c r="AG9">
-        <v>-687.6</v>
+        <v>-316.38</v>
       </c>
       <c r="AH9">
-        <v>0.03871638300636612</v>
+        <v>0.003588861979395415</v>
       </c>
       <c r="AI9">
-        <v>0.04511733535200606</v>
+        <v>0.01580896578409154</v>
       </c>
       <c r="AJ9">
-        <v>-13.14722753346081</v>
+        <v>-0.2487811782467839</v>
       </c>
       <c r="AK9">
-        <v>12.08435852372584</v>
+        <v>-7.965256797583076</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1561,7 +1564,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PT Bank Ina Perdana Tbk (IDX:BINA)</t>
+          <t>PT Bank Jago Tbk (IDX:ARTO)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1569,29 +1572,23 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D10">
-        <v>0.158</v>
-      </c>
-      <c r="E10">
-        <v>-0.0304</v>
-      </c>
       <c r="G10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K10">
-        <v>0.83</v>
+        <v>-14</v>
       </c>
       <c r="L10">
-        <v>0.07904761904761905</v>
+        <v>10.68702290076336</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1600,7 +1597,7 @@
         <v>-0</v>
       </c>
       <c r="O10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>-0</v>
@@ -1609,61 +1606,61 @@
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>41.4</v>
+        <v>21.5</v>
       </c>
       <c r="V10">
-        <v>0.1182519280205655</v>
+        <v>0.006396715361042516</v>
       </c>
       <c r="W10">
-        <v>0.01031055900621118</v>
+        <v>-2.055800293685756</v>
       </c>
       <c r="X10">
-        <v>0.0481956045985437</v>
+        <v>0.04079772957057437</v>
       </c>
       <c r="Y10">
-        <v>-0.03788504559233252</v>
+        <v>-2.09659802325633</v>
       </c>
       <c r="Z10">
-        <v>0.2557856272838003</v>
+        <v>-0.2408088235294118</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04799756341865452</v>
+        <v>0.0408937823421432</v>
       </c>
       <c r="AC10">
-        <v>-0.04799756341865452</v>
+        <v>-0.0408937823421432</v>
       </c>
       <c r="AD10">
-        <v>9.17</v>
+        <v>4.83</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>9.17</v>
+        <v>4.83</v>
       </c>
       <c r="AG10">
-        <v>-32.23</v>
+        <v>-16.67</v>
       </c>
       <c r="AH10">
-        <v>0.02552397918000389</v>
+        <v>0.001434967453274429</v>
       </c>
       <c r="AI10">
-        <v>0.09665858543269737</v>
+        <v>0.0557543576128362</v>
       </c>
       <c r="AJ10">
-        <v>-0.1013936514927486</v>
+        <v>-0.004984406909398613</v>
       </c>
       <c r="AK10">
-        <v>-0.6027679072377032</v>
+        <v>-0.2559496391831722</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1680,7 +1677,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PT Bank Mega Tbk (IDX:MEGA)</t>
+          <t>PT Bank Mestika Dharma Tbk (IDX:BBMD)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1689,10 +1686,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0781</v>
+        <v>0.0354</v>
       </c>
       <c r="E11">
-        <v>0.196</v>
+        <v>0.0342</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1707,85 +1704,85 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>130.6</v>
+        <v>16.9</v>
       </c>
       <c r="L11">
-        <v>0.3271543086172345</v>
+        <v>0.3528183716075156</v>
       </c>
       <c r="M11">
-        <v>56.4</v>
+        <v>4.64</v>
       </c>
       <c r="N11">
-        <v>0.01771468057038758</v>
+        <v>0.0106691193377788</v>
       </c>
       <c r="O11">
-        <v>0.4318529862174579</v>
+        <v>0.2745562130177515</v>
       </c>
       <c r="P11">
-        <v>56.4</v>
+        <v>-0</v>
       </c>
       <c r="Q11">
-        <v>0.01771468057038758</v>
+        <v>-0</v>
       </c>
       <c r="R11">
-        <v>0.4318529862174579</v>
+        <v>-0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>4.64</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>167.1</v>
+        <v>22.1</v>
       </c>
       <c r="V11">
-        <v>0.05248445254098875</v>
+        <v>0.05081627960450679</v>
       </c>
       <c r="W11">
-        <v>0.1529453097552406</v>
+        <v>0.06995033112582781</v>
       </c>
       <c r="X11">
-        <v>0.04938135278481414</v>
+        <v>0.04096589690306322</v>
       </c>
       <c r="Y11">
-        <v>0.1035639569704265</v>
+        <v>0.02898443422276459</v>
       </c>
       <c r="Z11">
-        <v>0.3812434342469678</v>
+        <v>0.2612062384120405</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04870507997589936</v>
+        <v>0.04092957852892481</v>
       </c>
       <c r="AC11">
-        <v>-0.04870507997589936</v>
+        <v>-0.04092957852892481</v>
       </c>
       <c r="AD11">
-        <v>260.4</v>
+        <v>3.36</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>260.4</v>
+        <v>3.36</v>
       </c>
       <c r="AG11">
-        <v>93.29999999999998</v>
+        <v>-18.74</v>
       </c>
       <c r="AH11">
-        <v>0.07560536554207072</v>
+        <v>0.00766668187833706</v>
       </c>
       <c r="AI11">
-        <v>0.1980378736025553</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="AJ11">
-        <v>0.02847029385737389</v>
+        <v>-0.04503075740099963</v>
       </c>
       <c r="AK11">
-        <v>0.08128593831677991</v>
+        <v>-0.08887413449682255</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1802,7 +1799,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PT Bank Nationalnobu Tbk (IDX:NOBU)</t>
+          <t>PT Bank Ina Perdana Tbk (IDX:BINA)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1811,10 +1808,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.257</v>
+        <v>0.174</v>
       </c>
       <c r="E12">
-        <v>0.214</v>
+        <v>-0.00031</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1829,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.97</v>
+        <v>0.827</v>
       </c>
       <c r="L12">
-        <v>0.08658892128279885</v>
+        <v>0.07383928571428572</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -1856,55 +1853,55 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>188.6</v>
+        <v>36.2</v>
       </c>
       <c r="V12">
-        <v>0.6631504922644164</v>
+        <v>0.128871484514062</v>
       </c>
       <c r="W12">
-        <v>0.03173076923076924</v>
+        <v>0.009649941656942823</v>
       </c>
       <c r="X12">
-        <v>0.05049417392145115</v>
+        <v>0.04139901637042168</v>
       </c>
       <c r="Y12">
-        <v>-0.01876340469068192</v>
+        <v>-0.03174907471347885</v>
       </c>
       <c r="Z12">
-        <v>0.7472766884531591</v>
+        <v>0.2094632504207967</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.0493059744647282</v>
+        <v>0.04136122976267377</v>
       </c>
       <c r="AC12">
-        <v>-0.0493059744647282</v>
+        <v>-0.04136122976267377</v>
       </c>
       <c r="AD12">
-        <v>38.1</v>
+        <v>6.72</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>38.1</v>
+        <v>6.72</v>
       </c>
       <c r="AG12">
-        <v>-150.5</v>
+        <v>-29.48</v>
       </c>
       <c r="AH12">
-        <v>0.1181395348837209</v>
+        <v>0.02336416104582435</v>
       </c>
       <c r="AI12">
-        <v>0.2700212615166549</v>
+        <v>0.07988587731811697</v>
       </c>
       <c r="AJ12">
-        <v>-1.123973114264377</v>
+        <v>-0.1172539972953624</v>
       </c>
       <c r="AK12">
-        <v>3.168421052631579</v>
+        <v>-0.6151919866444074</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1930,10 +1927,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.07719999999999999</v>
+        <v>0.0789</v>
       </c>
       <c r="E13">
-        <v>0.189</v>
+        <v>0.196</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1948,85 +1945,82 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.3</v>
+        <v>3.83</v>
       </c>
       <c r="L13">
-        <v>0.2760416666666667</v>
+        <v>0.2081521739130435</v>
       </c>
       <c r="M13">
-        <v>2.51</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.02192139737991266</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>0.4735849056603773</v>
+        <v>-0</v>
       </c>
       <c r="P13">
-        <v>2.51</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.02192139737991266</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>0.4735849056603773</v>
+        <v>-0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
-        <v>35.6</v>
+        <v>44.7</v>
       </c>
       <c r="V13">
-        <v>0.3109170305676856</v>
+        <v>0.3248546511627907</v>
       </c>
       <c r="W13">
-        <v>0.06768837803320563</v>
+        <v>0.04495305164319249</v>
       </c>
       <c r="X13">
-        <v>0.05085942112761796</v>
+        <v>0.04189421545448324</v>
       </c>
       <c r="Y13">
-        <v>0.01682895690558767</v>
+        <v>0.003058836188709245</v>
       </c>
       <c r="Z13">
-        <v>0.3018867924528302</v>
+        <v>0.2750373692077728</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.0494913243911481</v>
+        <v>0.04166355139854229</v>
       </c>
       <c r="AC13">
-        <v>-0.0494913243911481</v>
+        <v>-0.04166355139854229</v>
       </c>
       <c r="AD13">
-        <v>17.3</v>
+        <v>5.84</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>17.3</v>
+        <v>5.84</v>
       </c>
       <c r="AG13">
-        <v>-18.3</v>
+        <v>-38.86</v>
       </c>
       <c r="AH13">
-        <v>0.1312594840667678</v>
+        <v>0.04071388733965421</v>
       </c>
       <c r="AI13">
-        <v>0.1687804878048781</v>
+        <v>0.0640772438007461</v>
       </c>
       <c r="AJ13">
-        <v>-0.1902286902286902</v>
+        <v>-0.3935588414016609</v>
       </c>
       <c r="AK13">
-        <v>-0.273542600896861</v>
+        <v>-0.8367786391042206</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2043,7 +2037,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PT Bank Rakyat Indonesia (Persero) Tbk (IDX:BBRI)</t>
+          <t>PT Bank Pembangunan Daerah Jawa Timur Tbk (IDX:BJTM)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2052,13 +2046,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.0956</v>
+        <v>0.0764</v>
       </c>
       <c r="E14">
-        <v>0.0704</v>
-      </c>
-      <c r="F14">
-        <v>0.11</v>
+        <v>0.0839</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2073,28 +2064,28 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2374.3</v>
+        <v>89.8</v>
       </c>
       <c r="L14">
-        <v>0.4189546866177302</v>
+        <v>0.3248914616497829</v>
       </c>
       <c r="M14">
-        <v>1140.8</v>
+        <v>48.7</v>
       </c>
       <c r="N14">
-        <v>0.02942466120886661</v>
+        <v>0.066240478781284</v>
       </c>
       <c r="O14">
-        <v>0.4804784568083224</v>
+        <v>0.5423162583518931</v>
       </c>
       <c r="P14">
-        <v>1140.8</v>
+        <v>48.7</v>
       </c>
       <c r="Q14">
-        <v>0.02942466120886661</v>
+        <v>0.066240478781284</v>
       </c>
       <c r="R14">
-        <v>0.4804784568083224</v>
+        <v>0.5423162583518931</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2103,55 +2094,55 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>7815.8</v>
+        <v>679.5</v>
       </c>
       <c r="V14">
-        <v>0.2015929760486147</v>
+        <v>0.9242383025027203</v>
       </c>
       <c r="W14">
-        <v>0.2042584308327598</v>
+        <v>0.1423814808942445</v>
       </c>
       <c r="X14">
-        <v>0.05096825661808892</v>
+        <v>0.04241057389189777</v>
       </c>
       <c r="Y14">
-        <v>0.1532901742146709</v>
+        <v>0.09997090700234672</v>
       </c>
       <c r="Z14">
-        <v>0.4656582007017083</v>
+        <v>-4.857644991212656</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB14">
-        <v>0.04966707708746661</v>
+        <v>0.04172475548828489</v>
       </c>
       <c r="AC14">
-        <v>-0.04966707708746661</v>
+        <v>-0.04172475548828489</v>
       </c>
       <c r="AD14">
-        <v>6055.7</v>
+        <v>45.4</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>6055.7</v>
+        <v>45.4</v>
       </c>
       <c r="AG14">
-        <v>-1760.1</v>
+        <v>-634.1</v>
       </c>
       <c r="AH14">
-        <v>0.1350937739119572</v>
+        <v>0.05816038944401742</v>
       </c>
       <c r="AI14">
-        <v>0.3008505310851227</v>
+        <v>0.0654178674351585</v>
       </c>
       <c r="AJ14">
-        <v>-0.04755728841586487</v>
+        <v>-6.272007912957466</v>
       </c>
       <c r="AK14">
-        <v>-0.1429488012474823</v>
+        <v>-43.73103448275862</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2168,7 +2159,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PT Bank OCBC NISP Tbk (IDX:NISP)</t>
+          <t>PT Bank Mayapada Internasional Tbk (IDX:MAYA)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2177,10 +2168,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.127</v>
+        <v>0.0452</v>
       </c>
       <c r="E15">
-        <v>0.178</v>
+        <v>-0.472</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2195,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>199.2</v>
+        <v>1.6</v>
       </c>
       <c r="L15">
-        <v>0.3795731707317073</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="M15">
         <v>-0</v>
@@ -2222,55 +2213,55 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>437.5</v>
+        <v>141.2</v>
       </c>
       <c r="V15">
-        <v>0.3133954154727794</v>
+        <v>0.03752026147264369</v>
       </c>
       <c r="W15">
-        <v>0.1262117468161946</v>
+        <v>0.00196681007990166</v>
       </c>
       <c r="X15">
-        <v>0.05832834413768855</v>
+        <v>0.04358874246221027</v>
       </c>
       <c r="Y15">
-        <v>0.06788340267850608</v>
+        <v>-0.04162193238230861</v>
       </c>
       <c r="Z15">
-        <v>0.2217433557273841</v>
+        <v>0.1702577660277594</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.04989997001937</v>
+        <v>0.04234768511979548</v>
       </c>
       <c r="AC15">
-        <v>-0.04989997001937</v>
+        <v>-0.04234768511979548</v>
       </c>
       <c r="AD15">
-        <v>699.8</v>
+        <v>398.2</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>699.8</v>
+        <v>398.2</v>
       </c>
       <c r="AG15">
-        <v>262.3</v>
+        <v>257</v>
       </c>
       <c r="AH15">
-        <v>0.3339059070521996</v>
+        <v>0.09568665144779526</v>
       </c>
       <c r="AI15">
-        <v>0.2694128970163619</v>
+        <v>0.2669795507877975</v>
       </c>
       <c r="AJ15">
-        <v>0.1581740336489176</v>
+        <v>0.06392557769320698</v>
       </c>
       <c r="AK15">
-        <v>0.1214351851851852</v>
+        <v>0.1903280752425387</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2287,7 +2278,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PT Bank BRIsyariah Tbk (IDX:BRIS)</t>
+          <t>PT Bank Rakyat Indonesia (Persero) Tbk (IDX:BBRI)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2296,7 +2287,13 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.04769999999999999</v>
+        <v>0.0619</v>
+      </c>
+      <c r="E16">
+        <v>-0.00714</v>
+      </c>
+      <c r="F16">
+        <v>0.0215</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2311,28 +2308,28 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.84</v>
+        <v>1594.3</v>
       </c>
       <c r="L16">
-        <v>0.008527918781725888</v>
+        <v>0.3063016330451489</v>
       </c>
       <c r="M16">
-        <v>0.752</v>
+        <v>1386.9</v>
       </c>
       <c r="N16">
-        <v>0.003256821134690342</v>
+        <v>0.03767930884590306</v>
       </c>
       <c r="O16">
-        <v>0.8952380952380953</v>
+        <v>0.8699115599322588</v>
       </c>
       <c r="P16">
-        <v>0.752</v>
+        <v>1386.9</v>
       </c>
       <c r="Q16">
-        <v>0.003256821134690342</v>
+        <v>0.03767930884590306</v>
       </c>
       <c r="R16">
-        <v>0.8952380952380953</v>
+        <v>0.8699115599322588</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2341,55 +2338,55 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>176.6</v>
+        <v>5675.7</v>
       </c>
       <c r="V16">
-        <v>0.7648332611520138</v>
+        <v>0.154197457074549</v>
       </c>
       <c r="W16">
-        <v>0.002470588235294118</v>
+        <v>0.114686290589437</v>
       </c>
       <c r="X16">
-        <v>0.06255438301603962</v>
+        <v>0.04407548238550574</v>
       </c>
       <c r="Y16">
-        <v>-0.0600837947807455</v>
+        <v>0.0706108082039313</v>
       </c>
       <c r="Z16">
-        <v>0.3708584337349397</v>
+        <v>0.4287020335548912</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.05042632447432033</v>
+        <v>0.04364113541266196</v>
       </c>
       <c r="AC16">
-        <v>-0.05042632447432033</v>
+        <v>-0.04364113541266196</v>
       </c>
       <c r="AD16">
-        <v>161.5</v>
+        <v>4564.7</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>161.5</v>
+        <v>4564.7</v>
       </c>
       <c r="AG16">
-        <v>-15.09999999999999</v>
+        <v>-1111</v>
       </c>
       <c r="AH16">
-        <v>0.4115698267074414</v>
+        <v>0.1103312087439302</v>
       </c>
       <c r="AI16">
-        <v>0.310995570960909</v>
+        <v>0.2585368063933303</v>
       </c>
       <c r="AJ16">
-        <v>-0.06997219647822055</v>
+        <v>-0.03112306356276438</v>
       </c>
       <c r="AK16">
-        <v>-0.04406186168660634</v>
+        <v>-0.0927363483080416</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2406,7 +2403,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PT Bank Mandiri (Persero) Tbk (IDX:BMRI)</t>
+          <t>PT Bank Mega Tbk (IDX:MEGA)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2415,13 +2412,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.0801</v>
+        <v>0.102</v>
       </c>
       <c r="E17">
-        <v>0.06480000000000001</v>
-      </c>
-      <c r="F17">
-        <v>0.0998</v>
+        <v>0.236</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2436,28 +2430,28 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1916.4</v>
+        <v>160.5</v>
       </c>
       <c r="L17">
-        <v>0.3574039537486013</v>
+        <v>0.3867469879518072</v>
       </c>
       <c r="M17">
-        <v>793.9</v>
+        <v>67.3</v>
       </c>
       <c r="N17">
-        <v>0.03078563673026214</v>
+        <v>0.01864265927977839</v>
       </c>
       <c r="O17">
-        <v>0.4142663327071592</v>
+        <v>0.4193146417445482</v>
       </c>
       <c r="P17">
-        <v>793.9</v>
+        <v>67.3</v>
       </c>
       <c r="Q17">
-        <v>0.03078563673026214</v>
+        <v>0.01864265927977839</v>
       </c>
       <c r="R17">
-        <v>0.4142663327071592</v>
+        <v>0.4193146417445482</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2466,55 +2460,55 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>2524.4</v>
+        <v>154.3</v>
       </c>
       <c r="V17">
-        <v>0.09789049170156662</v>
+        <v>0.04274238227146815</v>
       </c>
       <c r="W17">
-        <v>0.165275286325376</v>
+        <v>0.1522048364153627</v>
       </c>
       <c r="X17">
-        <v>0.05310975597739842</v>
+        <v>0.04486369609391229</v>
       </c>
       <c r="Y17">
-        <v>0.1121655303479776</v>
+        <v>0.1073411403214504</v>
       </c>
       <c r="Z17">
-        <v>0.3720304174067495</v>
+        <v>0.3615612476041122</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.05070562341983756</v>
+        <v>0.04418745896273572</v>
       </c>
       <c r="AC17">
-        <v>-0.05070562341983756</v>
+        <v>-0.04418745896273572</v>
       </c>
       <c r="AD17">
-        <v>6617.3</v>
+        <v>554.1</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>6617.3</v>
+        <v>554.1</v>
       </c>
       <c r="AG17">
-        <v>4092.9</v>
+        <v>399.8</v>
       </c>
       <c r="AH17">
-        <v>0.2042042505392636</v>
+        <v>0.1330659686366802</v>
       </c>
       <c r="AI17">
-        <v>0.3184287645986016</v>
+        <v>0.3394388630237687</v>
       </c>
       <c r="AJ17">
-        <v>0.1369737859301427</v>
+        <v>0.09970572098359021</v>
       </c>
       <c r="AK17">
-        <v>0.2241861891798627</v>
+        <v>0.2704823760232731</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2531,7 +2525,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PT Bank Pembangunan Daerah Jawa Barat dan Banten Tbk (IDX:BJBR)</t>
+          <t>PT Bank OCBC NISP Tbk (IDX:NISP)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2540,13 +2534,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.0955</v>
+        <v>0.102</v>
       </c>
       <c r="E18">
-        <v>0.0624</v>
-      </c>
-      <c r="F18">
-        <v>0.0716</v>
+        <v>0.13</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2561,85 +2552,82 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>94.8</v>
+        <v>179.3</v>
       </c>
       <c r="L18">
-        <v>0.2055061781920659</v>
+        <v>0.3577414205905826</v>
       </c>
       <c r="M18">
-        <v>62</v>
+        <v>-0</v>
       </c>
       <c r="N18">
-        <v>0.07386228258279724</v>
+        <v>-0</v>
       </c>
       <c r="O18">
-        <v>0.6540084388185654</v>
+        <v>-0</v>
       </c>
       <c r="P18">
-        <v>62</v>
+        <v>-0</v>
       </c>
       <c r="Q18">
-        <v>0.07386228258279724</v>
+        <v>-0</v>
       </c>
       <c r="R18">
-        <v>0.6540084388185654</v>
+        <v>-0</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
       <c r="U18">
-        <v>725.5</v>
+        <v>381.3</v>
       </c>
       <c r="V18">
-        <v>0.8643078389325709</v>
+        <v>0.2814645308924485</v>
       </c>
       <c r="W18">
-        <v>0.1225756400310318</v>
+        <v>0.09448279496232281</v>
       </c>
       <c r="X18">
-        <v>0.0674884881362801</v>
+        <v>0.05032481652487303</v>
       </c>
       <c r="Y18">
-        <v>0.0550871518947517</v>
+        <v>0.04415797843744979</v>
       </c>
       <c r="Z18">
-        <v>0.399982658458337</v>
+        <v>0.232037037037037</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.05090416608237611</v>
+        <v>0.0451328571102096</v>
       </c>
       <c r="AC18">
-        <v>-0.05090416608237611</v>
+        <v>-0.0451328571102096</v>
       </c>
       <c r="AD18">
-        <v>781.3</v>
+        <v>484.6</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>781.3</v>
+        <v>484.6</v>
       </c>
       <c r="AG18">
-        <v>55.79999999999995</v>
+        <v>103.3</v>
       </c>
       <c r="AH18">
-        <v>0.4820756463256618</v>
+        <v>0.2634697982928288</v>
       </c>
       <c r="AI18">
-        <v>0.5043899289864429</v>
+        <v>0.1960276687836253</v>
       </c>
       <c r="AJ18">
-        <v>0.06233243967828413</v>
+        <v>0.07085048010973938</v>
       </c>
       <c r="AK18">
-        <v>0.06775956284152999</v>
+        <v>0.04940692557872585</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -2656,7 +2644,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>P.T. Bank Pan Indonesia Tbk (IDX:PNBN)</t>
+          <t>PT Bank CIMB Niaga Tbk (IDX:BNGA)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2665,13 +2653,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.064</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="E19">
-        <v>0.0622</v>
-      </c>
-      <c r="F19">
-        <v>0.0596</v>
+        <v>0.555</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2680,94 +2665,103 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001597806391969618</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.001152625308536081</v>
       </c>
       <c r="K19">
-        <v>239</v>
+        <v>190.4</v>
       </c>
       <c r="L19">
-        <v>0.3390551851326429</v>
+        <v>0.236374922408442</v>
       </c>
       <c r="M19">
-        <v>-0</v>
+        <v>93.672</v>
       </c>
       <c r="N19">
-        <v>-0</v>
+        <v>0.05202843812486114</v>
       </c>
       <c r="O19">
-        <v>-0</v>
+        <v>0.4919747899159664</v>
       </c>
       <c r="P19">
-        <v>-0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="Q19">
-        <v>-0</v>
+        <v>0.05198844701177516</v>
       </c>
       <c r="R19">
-        <v>-0</v>
+        <v>0.4915966386554622</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.07200000000000273</v>
+      </c>
+      <c r="T19">
+        <v>0.000768639508070744</v>
       </c>
       <c r="U19">
-        <v>347.4</v>
+        <v>1705.3</v>
       </c>
       <c r="V19">
-        <v>0.1500453504945363</v>
+        <v>0.9471784047989334</v>
       </c>
       <c r="W19">
-        <v>0.09880115750310045</v>
+        <v>0.06387118416638712</v>
       </c>
       <c r="X19">
-        <v>0.06407424581977587</v>
+        <v>0.05712175920914599</v>
       </c>
       <c r="Y19">
-        <v>0.03472691168332458</v>
+        <v>0.006749424957241137</v>
       </c>
       <c r="Z19">
-        <v>0.1859747249558082</v>
+        <v>0.2417129782132855</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>0.0002786044960902633</v>
       </c>
       <c r="AB19">
-        <v>0.05254545329360533</v>
+        <v>0.04706083356200764</v>
       </c>
       <c r="AC19">
-        <v>-0.05254545329360533</v>
+        <v>-0.04678222906591738</v>
       </c>
       <c r="AD19">
-        <v>1784.4</v>
+        <v>1093.5</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>8.164834756342364</v>
       </c>
       <c r="AF19">
-        <v>1784.4</v>
+        <v>1101.664834756342</v>
       </c>
       <c r="AG19">
-        <v>1437</v>
+        <v>-603.6351652436576</v>
       </c>
       <c r="AH19">
-        <v>0.4352513598555992</v>
+        <v>0.3796141359635882</v>
       </c>
       <c r="AI19">
-        <v>0.369846829854706</v>
+        <v>0.2902199790338829</v>
       </c>
       <c r="AJ19">
-        <v>0.3829651147296325</v>
+        <v>-0.5043891228359462</v>
       </c>
       <c r="AK19">
-        <v>0.3209523596810578</v>
+        <v>-0.2887288077976443</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19">
         <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>374.486301369863</v>
+      </c>
+      <c r="AP19">
+        <v>-206.7243716587869</v>
       </c>
     </row>
     <row r="20">
@@ -2778,7 +2772,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PT Bank Bukopin Tbk (IDX:BBKP)</t>
+          <t>PT Bank Mandiri (Persero) Tbk (IDX:BMRI)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2787,10 +2781,13 @@
         </is>
       </c>
       <c r="D20">
-        <v>-0.0398</v>
+        <v>0.0549</v>
       </c>
       <c r="E20">
-        <v>-0.252</v>
+        <v>0.0123</v>
+      </c>
+      <c r="F20">
+        <v>0.06860000000000001</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2805,85 +2802,85 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.3</v>
+        <v>1429.7</v>
       </c>
       <c r="L20">
-        <v>0.07405489383738996</v>
+        <v>0.3056351276240968</v>
       </c>
       <c r="M20">
-        <v>0.41</v>
+        <v>1119</v>
       </c>
       <c r="N20">
-        <v>0.002182011708355508</v>
+        <v>0.0526937874071737</v>
       </c>
       <c r="O20">
-        <v>0.02867132867132867</v>
+        <v>0.7826816814716374</v>
       </c>
       <c r="P20">
-        <v>-0</v>
+        <v>1108.9</v>
       </c>
       <c r="Q20">
-        <v>-0</v>
+        <v>0.05221817770850305</v>
       </c>
       <c r="R20">
-        <v>-0</v>
+        <v>0.7756172623627334</v>
       </c>
       <c r="S20">
-        <v>0.41</v>
+        <v>10.09999999999991</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0.009025915996425299</v>
       </c>
       <c r="U20">
-        <v>509.8</v>
+        <v>2306.3</v>
       </c>
       <c r="V20">
-        <v>2.713145290047898</v>
+        <v>0.1086038265390212</v>
       </c>
       <c r="W20">
-        <v>0.02456622573440989</v>
+        <v>0.1030704125844382</v>
       </c>
       <c r="X20">
-        <v>0.113504372883509</v>
+        <v>0.0496902329586133</v>
       </c>
       <c r="Y20">
-        <v>-0.08893814714909908</v>
+        <v>0.05338017962582485</v>
       </c>
       <c r="Z20">
-        <v>0.321297836938436</v>
+        <v>0.2608312609427797</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.05615590223100508</v>
+        <v>0.04729884991058352</v>
       </c>
       <c r="AC20">
-        <v>-0.05615590223100508</v>
+        <v>-0.04729884991058352</v>
       </c>
       <c r="AD20">
-        <v>580.3</v>
+        <v>7092.5</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>580.3</v>
+        <v>7092.5</v>
       </c>
       <c r="AG20">
-        <v>70.49999999999994</v>
+        <v>4786.2</v>
       </c>
       <c r="AH20">
-        <v>0.7554022390002604</v>
+        <v>0.2503671227460781</v>
       </c>
       <c r="AI20">
-        <v>0.4822972074468085</v>
+        <v>0.357751750297601</v>
       </c>
       <c r="AJ20">
-        <v>0.2728328173374611</v>
+        <v>0.1839282763497181</v>
       </c>
       <c r="AK20">
-        <v>0.1016729160657628</v>
+        <v>0.2732020846057686</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -2900,124 +2897,1091 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>PT Bank Nationalnobu Tbk (IDX:NOBU)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.221</v>
+      </c>
+      <c r="E21">
+        <v>0.242</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>4.15</v>
+      </c>
+      <c r="L21">
+        <v>0.1118598382749326</v>
+      </c>
+      <c r="M21">
+        <v>-0</v>
+      </c>
+      <c r="N21">
+        <v>-0</v>
+      </c>
+      <c r="O21">
+        <v>-0</v>
+      </c>
+      <c r="P21">
+        <v>-0</v>
+      </c>
+      <c r="Q21">
+        <v>-0</v>
+      </c>
+      <c r="R21">
+        <v>-0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>124.6</v>
+      </c>
+      <c r="V21">
+        <v>0.4726858877086494</v>
+      </c>
+      <c r="W21">
+        <v>0.04029126213592233</v>
+      </c>
+      <c r="X21">
+        <v>0.05224266441176723</v>
+      </c>
+      <c r="Y21">
+        <v>-0.0119514022758449</v>
+      </c>
+      <c r="Z21">
+        <v>-0.7810526315789474</v>
+      </c>
+      <c r="AA21">
+        <v>-0</v>
+      </c>
+      <c r="AB21">
+        <v>0.04743168323487705</v>
+      </c>
+      <c r="AC21">
+        <v>-0.04743168323487705</v>
+      </c>
+      <c r="AD21">
+        <v>113.2</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>113.2</v>
+      </c>
+      <c r="AG21">
+        <v>-11.39999999999999</v>
+      </c>
+      <c r="AH21">
+        <v>0.3004246284501061</v>
+      </c>
+      <c r="AI21">
+        <v>0.5312060065696855</v>
+      </c>
+      <c r="AJ21">
+        <v>-0.04520222045995238</v>
+      </c>
+      <c r="AK21">
+        <v>-0.1288135593220338</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PT Bank Negara Indonesia (Persero) Tbk (IDX:BBNI)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.042</v>
+      </c>
+      <c r="E22">
+        <v>-0.0335</v>
+      </c>
+      <c r="F22">
+        <v>0.0236</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>519.9</v>
+      </c>
+      <c r="L22">
+        <v>0.2390234931727277</v>
+      </c>
+      <c r="M22">
+        <v>263.94</v>
+      </c>
+      <c r="N22">
+        <v>0.03186718985813462</v>
+      </c>
+      <c r="O22">
+        <v>0.5076745527986152</v>
+      </c>
+      <c r="P22">
+        <v>258.6</v>
+      </c>
+      <c r="Q22">
+        <v>0.03122245698762451</v>
+      </c>
+      <c r="R22">
+        <v>0.4974033467974611</v>
+      </c>
+      <c r="S22">
+        <v>5.339999999999975</v>
+      </c>
+      <c r="T22">
+        <v>0.0202318708797453</v>
+      </c>
+      <c r="U22">
+        <v>6462.3</v>
+      </c>
+      <c r="V22">
+        <v>0.7802354361605796</v>
+      </c>
+      <c r="W22">
+        <v>0.06204871761209705</v>
+      </c>
+      <c r="X22">
+        <v>0.05152423373816886</v>
+      </c>
+      <c r="Y22">
+        <v>0.01052448387392819</v>
+      </c>
+      <c r="Z22">
+        <v>0.2507435501348765</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0.04825632046649318</v>
+      </c>
+      <c r="AC22">
+        <v>-0.04825632046649318</v>
+      </c>
+      <c r="AD22">
+        <v>3334.3</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>3334.3</v>
+      </c>
+      <c r="AG22">
+        <v>-3128</v>
+      </c>
+      <c r="AH22">
+        <v>0.2870239652916466</v>
+      </c>
+      <c r="AI22">
+        <v>0.3050873821941623</v>
+      </c>
+      <c r="AJ22">
+        <v>-0.6068483849063925</v>
+      </c>
+      <c r="AK22">
+        <v>-0.7002932813934225</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PT Bank Bukopin Tbk (IDX:BBKP)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>-0.153</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>-66.8</v>
+      </c>
+      <c r="L23">
+        <v>-0.6260543580131208</v>
+      </c>
+      <c r="M23">
+        <v>-0</v>
+      </c>
+      <c r="N23">
+        <v>-0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>-0</v>
+      </c>
+      <c r="Q23">
+        <v>-0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>116.7</v>
+      </c>
+      <c r="V23">
+        <v>0.08627190064315812</v>
+      </c>
+      <c r="W23">
+        <v>-0.1074991953653042</v>
+      </c>
+      <c r="X23">
+        <v>0.05729142575640254</v>
+      </c>
+      <c r="Y23">
+        <v>-0.1647906211217067</v>
+      </c>
+      <c r="Z23">
+        <v>0.1572586588061902</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0.04924449340641221</v>
+      </c>
+      <c r="AC23">
+        <v>-0.04924449340641221</v>
+      </c>
+      <c r="AD23">
+        <v>836.3</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>836.3</v>
+      </c>
+      <c r="AG23">
+        <v>719.5999999999999</v>
+      </c>
+      <c r="AH23">
+        <v>0.3820465966194609</v>
+      </c>
+      <c r="AI23">
+        <v>0.5455672255202557</v>
+      </c>
+      <c r="AJ23">
+        <v>0.3472470202190802</v>
+      </c>
+      <c r="AK23">
+        <v>0.5081203219884197</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PT Bank Danamon Indonesia Tbk (IDX:BDMN)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>0.00228</v>
+      </c>
+      <c r="E24">
+        <v>0.043</v>
+      </c>
+      <c r="F24">
+        <v>0.167</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>198.6</v>
+      </c>
+      <c r="L24">
+        <v>0.2154480364504231</v>
+      </c>
+      <c r="M24">
+        <v>127.7</v>
+      </c>
+      <c r="N24">
+        <v>0.05779326574945692</v>
+      </c>
+      <c r="O24">
+        <v>0.6430010070493455</v>
+      </c>
+      <c r="P24">
+        <v>127.7</v>
+      </c>
+      <c r="Q24">
+        <v>0.05779326574945692</v>
+      </c>
+      <c r="R24">
+        <v>0.6430010070493455</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>462.9</v>
+      </c>
+      <c r="V24">
+        <v>0.2094949312092687</v>
+      </c>
+      <c r="W24">
+        <v>0.06482357933218004</v>
+      </c>
+      <c r="X24">
+        <v>0.05831314103171267</v>
+      </c>
+      <c r="Y24">
+        <v>0.006510438300467367</v>
+      </c>
+      <c r="Z24">
+        <v>0.204010269121813</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0.04956107347723861</v>
+      </c>
+      <c r="AC24">
+        <v>-0.04956107347723861</v>
+      </c>
+      <c r="AD24">
+        <v>1450.5</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>1450.5</v>
+      </c>
+      <c r="AG24">
+        <v>987.6</v>
+      </c>
+      <c r="AH24">
+        <v>0.3963006475232917</v>
+      </c>
+      <c r="AI24">
+        <v>0.329068263799088</v>
+      </c>
+      <c r="AJ24">
+        <v>0.3088952833729514</v>
+      </c>
+      <c r="AK24">
+        <v>0.2503422053231939</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>P.T. Bank Pan Indonesia Tbk (IDX:PNBN)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>0.059</v>
+      </c>
+      <c r="E25">
+        <v>0.168</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>218.1</v>
+      </c>
+      <c r="L25">
+        <v>0.3481245011971269</v>
+      </c>
+      <c r="M25">
+        <v>0.285</v>
+      </c>
+      <c r="N25">
+        <v>0.0001543377017220838</v>
+      </c>
+      <c r="O25">
+        <v>0.001306740027510316</v>
+      </c>
+      <c r="P25">
+        <v>-0</v>
+      </c>
+      <c r="Q25">
+        <v>-0</v>
+      </c>
+      <c r="R25">
+        <v>-0</v>
+      </c>
+      <c r="S25">
+        <v>0.285</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>532.7</v>
+      </c>
+      <c r="V25">
+        <v>0.2884761182714178</v>
+      </c>
+      <c r="W25">
+        <v>0.07712164073550212</v>
+      </c>
+      <c r="X25">
+        <v>0.05929049491989444</v>
+      </c>
+      <c r="Y25">
+        <v>0.01783114581560769</v>
+      </c>
+      <c r="Z25">
+        <v>0.1468933177022274</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0.0498505357599844</v>
+      </c>
+      <c r="AC25">
+        <v>-0.0498505357599844</v>
+      </c>
+      <c r="AD25">
+        <v>1279.7</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>1279.7</v>
+      </c>
+      <c r="AG25">
+        <v>747</v>
+      </c>
+      <c r="AH25">
+        <v>0.4093337171736557</v>
+      </c>
+      <c r="AI25">
+        <v>0.2990931613144486</v>
+      </c>
+      <c r="AJ25">
+        <v>0.2880166563849476</v>
+      </c>
+      <c r="AK25">
+        <v>0.199418030379882</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PT Bank Maybank Indonesia Tbk (IDX:BNII)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>0.052</v>
+      </c>
+      <c r="E26">
+        <v>0.14</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>123.2</v>
+      </c>
+      <c r="L26">
+        <v>0.215158924205379</v>
+      </c>
+      <c r="M26">
+        <v>24.8</v>
+      </c>
+      <c r="N26">
+        <v>0.01306156844156528</v>
+      </c>
+      <c r="O26">
+        <v>0.2012987012987013</v>
+      </c>
+      <c r="P26">
+        <v>24.8</v>
+      </c>
+      <c r="Q26">
+        <v>0.01306156844156528</v>
+      </c>
+      <c r="R26">
+        <v>0.2012987012987013</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1093.1</v>
+      </c>
+      <c r="V26">
+        <v>0.5757096961078633</v>
+      </c>
+      <c r="W26">
+        <v>0.06860834215069332</v>
+      </c>
+      <c r="X26">
+        <v>0.06225500187434876</v>
+      </c>
+      <c r="Y26">
+        <v>0.006353340276344557</v>
+      </c>
+      <c r="Z26">
+        <v>0.1910770424904487</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0.05065678195061513</v>
+      </c>
+      <c r="AC26">
+        <v>-0.05065678195061513</v>
+      </c>
+      <c r="AD26">
+        <v>1526.3</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>1526.3</v>
+      </c>
+      <c r="AG26">
+        <v>433.2</v>
+      </c>
+      <c r="AH26">
+        <v>0.4456350364963503</v>
+      </c>
+      <c r="AI26">
+        <v>0.4600337573090602</v>
+      </c>
+      <c r="AJ26">
+        <v>0.1857712594879712</v>
+      </c>
+      <c r="AK26">
+        <v>0.1947228839843575</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>PT Bank BTPN Tbk (IDX:BTPN)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D21">
-        <v>0.0834</v>
-      </c>
-      <c r="E21">
-        <v>0.04099999999999999</v>
-      </c>
-      <c r="F21">
-        <v>0.197</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>-0.00604620485855262</v>
-      </c>
-      <c r="J21">
-        <v>-0.004496386524556537</v>
-      </c>
-      <c r="K21">
-        <v>161.7</v>
-      </c>
-      <c r="L21">
-        <v>0.222543352601156</v>
-      </c>
-      <c r="M21">
-        <v>-0</v>
-      </c>
-      <c r="N21">
-        <v>-0</v>
-      </c>
-      <c r="O21">
-        <v>-0</v>
-      </c>
-      <c r="P21">
-        <v>-0</v>
-      </c>
-      <c r="Q21">
-        <v>-0</v>
-      </c>
-      <c r="R21">
-        <v>-0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>717</v>
-      </c>
-      <c r="V21">
-        <v>0.3804520853231455</v>
-      </c>
-      <c r="W21">
-        <v>0.136709502874535</v>
-      </c>
-      <c r="X21">
-        <v>0.08605899037598252</v>
-      </c>
-      <c r="Y21">
-        <v>0.05065051249855249</v>
-      </c>
-      <c r="Z21">
-        <v>0.6039318595970267</v>
-      </c>
-      <c r="AA21">
-        <v>-0.002715511075242441</v>
-      </c>
-      <c r="AB21">
-        <v>0.05672154630498125</v>
-      </c>
-      <c r="AC21">
-        <v>-0.05943705738022369</v>
-      </c>
-      <c r="AD21">
-        <v>3363.5</v>
-      </c>
-      <c r="AE21">
-        <v>31.61586225112167</v>
-      </c>
-      <c r="AF21">
-        <v>3395.115862251122</v>
-      </c>
-      <c r="AG21">
-        <v>2678.115862251122</v>
-      </c>
-      <c r="AH21">
-        <v>0.6430489728671762</v>
-      </c>
-      <c r="AI21">
-        <v>0.6061823751667728</v>
-      </c>
-      <c r="AJ21">
-        <v>0.5869565283273658</v>
-      </c>
-      <c r="AK21">
-        <v>0.5483654457473104</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>1742.746113989637</v>
-      </c>
-      <c r="AP21">
-        <v>1387.624799093845</v>
+      <c r="D27">
+        <v>0.0861</v>
+      </c>
+      <c r="E27">
+        <v>0.0638</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0.001060827232420596</v>
+      </c>
+      <c r="J27">
+        <v>0.0007991072887684924</v>
+      </c>
+      <c r="K27">
+        <v>169.9</v>
+      </c>
+      <c r="L27">
+        <v>0.2240242616033755</v>
+      </c>
+      <c r="M27">
+        <v>7.19</v>
+      </c>
+      <c r="N27">
+        <v>0.003986913607630032</v>
+      </c>
+      <c r="O27">
+        <v>0.04231901118304885</v>
+      </c>
+      <c r="P27">
+        <v>7.19</v>
+      </c>
+      <c r="Q27">
+        <v>0.003986913607630032</v>
+      </c>
+      <c r="R27">
+        <v>0.04231901118304885</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>532.6</v>
+      </c>
+      <c r="V27">
+        <v>0.2953310413663081</v>
+      </c>
+      <c r="W27">
+        <v>0.08248774093314562</v>
+      </c>
+      <c r="X27">
+        <v>0.09185325144599514</v>
+      </c>
+      <c r="Y27">
+        <v>-0.00936551051284952</v>
+      </c>
+      <c r="Z27">
+        <v>0.1504882133159214</v>
+      </c>
+      <c r="AA27">
+        <v>0.0001202562281345005</v>
+      </c>
+      <c r="AB27">
+        <v>0.05165617392263318</v>
+      </c>
+      <c r="AC27">
+        <v>-0.05153591769449867</v>
+      </c>
+      <c r="AD27">
+        <v>3405.8</v>
+      </c>
+      <c r="AE27">
+        <v>40.0273431346611</v>
+      </c>
+      <c r="AF27">
+        <v>3445.827343134661</v>
+      </c>
+      <c r="AG27">
+        <v>2913.227343134661</v>
+      </c>
+      <c r="AH27">
+        <v>0.6564446761181674</v>
+      </c>
+      <c r="AI27">
+        <v>0.6086714301119521</v>
+      </c>
+      <c r="AJ27">
+        <v>0.6176505225444705</v>
+      </c>
+      <c r="AK27">
+        <v>0.5680325647045494</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>386.583427922815</v>
+      </c>
+      <c r="AP27">
+        <v>330.6727971776006</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PT Bank Pembangunan Daerah Jawa Barat dan Banten Tbk (IDX:BJBR)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>0.07870000000000001</v>
+      </c>
+      <c r="E28">
+        <v>0.05400000000000001</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>109.5</v>
+      </c>
+      <c r="L28">
+        <v>0.2215253894396116</v>
+      </c>
+      <c r="M28">
+        <v>62.2</v>
+      </c>
+      <c r="N28">
+        <v>0.05664845173041894</v>
+      </c>
+      <c r="O28">
+        <v>0.5680365296803653</v>
+      </c>
+      <c r="P28">
+        <v>62.2</v>
+      </c>
+      <c r="Q28">
+        <v>0.05664845173041894</v>
+      </c>
+      <c r="R28">
+        <v>0.5680365296803653</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1294.7</v>
+      </c>
+      <c r="V28">
+        <v>1.179143897996357</v>
+      </c>
+      <c r="W28">
+        <v>0.1433058500196309</v>
+      </c>
+      <c r="X28">
+        <v>0.06749971020799959</v>
+      </c>
+      <c r="Y28">
+        <v>0.07580613981163133</v>
+      </c>
+      <c r="Z28">
+        <v>0.6028783998048542</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0.05186421863739128</v>
+      </c>
+      <c r="AC28">
+        <v>-0.05186421863739128</v>
+      </c>
+      <c r="AD28">
+        <v>1098</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>1098</v>
+      </c>
+      <c r="AG28">
+        <v>-196.7</v>
+      </c>
+      <c r="AH28">
+        <v>0.5</v>
+      </c>
+      <c r="AI28">
+        <v>0.5938987451319775</v>
+      </c>
+      <c r="AJ28">
+        <v>-0.2182403195384445</v>
+      </c>
+      <c r="AK28">
+        <v>-0.3549900739938641</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PT Bank Capital Indonesia Tbk (IDX:BACA)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>0.05690000000000001</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>-0.247</v>
+      </c>
+      <c r="L29">
+        <v>-0.008697183098591549</v>
+      </c>
+      <c r="M29">
+        <v>-0</v>
+      </c>
+      <c r="N29">
+        <v>-0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>-0</v>
+      </c>
+      <c r="Q29">
+        <v>-0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>160</v>
+      </c>
+      <c r="V29">
+        <v>0.8443271767810027</v>
+      </c>
+      <c r="W29">
+        <v>-0.001536069651741293</v>
+      </c>
+      <c r="X29">
+        <v>0.06239151628915156</v>
+      </c>
+      <c r="Y29">
+        <v>-0.06392758594089284</v>
+      </c>
+      <c r="Z29">
+        <v>-0.2795275590551182</v>
+      </c>
+      <c r="AA29">
+        <v>-0</v>
+      </c>
+      <c r="AB29">
+        <v>0.05228042910190213</v>
+      </c>
+      <c r="AC29">
+        <v>-0.05228042910190213</v>
+      </c>
+      <c r="AD29">
+        <v>153.3</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>153.3</v>
+      </c>
+      <c r="AG29">
+        <v>-6.699999999999989</v>
+      </c>
+      <c r="AH29">
+        <v>0.4471995332555426</v>
+      </c>
+      <c r="AI29">
+        <v>0.5844452916507815</v>
+      </c>
+      <c r="AJ29">
+        <v>-0.036652078774617</v>
+      </c>
+      <c r="AK29">
+        <v>-0.06549364613880732</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
